--- a/Lab 6/Data/Run_7.xlsx
+++ b/Lab 6/Data/Run_7.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2325" windowWidth="21075" windowHeight="7755"/>
   </bookViews>
@@ -515,7 +520,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -566,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1128,7 +1136,7 @@
                 <c:pt idx="3">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0%">
+                <c:pt idx="4">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -1282,11 +1290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86382848"/>
-        <c:axId val="86047744"/>
+        <c:axId val="373541720"/>
+        <c:axId val="401283104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86382848"/>
+        <c:axId val="373541720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,12 +1323,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86047744"/>
+        <c:crossAx val="401283104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86047744"/>
+        <c:axId val="401283104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1358,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86382848"/>
+        <c:crossAx val="373541720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,7 +1453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,7 +1488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1692,7 +1700,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,13 +1709,13 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1767,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+      <c r="C6">
         <v>45</v>
       </c>
       <c r="D6">

--- a/Lab 6/Data/Run_7.xlsx
+++ b/Lab 6/Data/Run_7.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2325" windowWidth="21075" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Run_7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -34,6 +29,9 @@
   </si>
   <si>
     <t>kd: 4</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -788,162 +786,162 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_7!$D$2:$D$52</c:f>
+              <c:f>Run_7!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>-71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>76</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>68</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>84</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,162 +1118,162 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_7!$C$2:$C$52</c:f>
+              <c:f>Run_7!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,11 +1288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373541720"/>
-        <c:axId val="401283104"/>
+        <c:axId val="96536448"/>
+        <c:axId val="96538624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373541720"/>
+        <c:axId val="96536448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,12 +1321,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401283104"/>
+        <c:crossAx val="96538624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401283104"/>
+        <c:axId val="96538624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1344,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>heading (degrees)</a:t>
+                  <a:t>heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1358,7 +1356,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373541720"/>
+        <c:crossAx val="96536448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1453,7 +1451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,7 +1486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1697,15 +1695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="B2" sqref="B2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1718,11 +1716,17 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>45</v>
       </c>
@@ -1732,8 +1736,15 @@
       <c r="E2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1743,8 +1754,15 @@
       <c r="E3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F52" si="0">C3-D3</f>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1754,8 +1772,15 @@
       <c r="E4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1765,8 +1790,15 @@
       <c r="E5">
         <v>2400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1776,8 +1808,15 @@
       <c r="E6">
         <v>3200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1787,8 +1826,15 @@
       <c r="E7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1798,8 +1844,15 @@
       <c r="E8">
         <v>5220</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1809,8 +1862,15 @@
       <c r="E9">
         <v>5600</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1820,8 +1880,15 @@
       <c r="E10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1831,8 +1898,15 @@
       <c r="E11">
         <v>6400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1842,8 +1916,15 @@
       <c r="E12">
         <v>6800</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1853,8 +1934,15 @@
       <c r="E13">
         <v>7200</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1864,8 +1952,15 @@
       <c r="E14">
         <v>7600</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1875,8 +1970,15 @@
       <c r="E15">
         <v>8000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1886,8 +1988,15 @@
       <c r="E16">
         <v>8400</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1897,8 +2006,15 @@
       <c r="E17">
         <v>8800</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1908,8 +2024,15 @@
       <c r="E18">
         <v>9200</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1919,8 +2042,15 @@
       <c r="E19">
         <v>9600</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1930,8 +2060,15 @@
       <c r="E20">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1941,8 +2078,15 @@
       <c r="E21">
         <v>10400</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1952,8 +2096,15 @@
       <c r="E22">
         <v>10800</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1963,8 +2114,15 @@
       <c r="E23">
         <v>11200</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1974,8 +2132,15 @@
       <c r="E24">
         <v>11600</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -1985,8 +2150,15 @@
       <c r="E25">
         <v>12400</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -1996,8 +2168,15 @@
       <c r="E26">
         <v>13200</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -2007,8 +2186,15 @@
       <c r="E27">
         <v>14000</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -2018,8 +2204,15 @@
       <c r="E28">
         <v>14800</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -2029,8 +2222,15 @@
       <c r="E29">
         <v>15600</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -2040,8 +2240,15 @@
       <c r="E30">
         <v>16400</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -2051,8 +2258,15 @@
       <c r="E31">
         <v>17200</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -2062,8 +2276,15 @@
       <c r="E32">
         <v>17600</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -2073,8 +2294,15 @@
       <c r="E33">
         <v>18000</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -2084,8 +2312,15 @@
       <c r="E34">
         <v>18400</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -2095,8 +2330,15 @@
       <c r="E35">
         <v>18800</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -2106,8 +2348,15 @@
       <c r="E36">
         <v>19200</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -2117,8 +2366,15 @@
       <c r="E37">
         <v>19600</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -2128,8 +2384,15 @@
       <c r="E38">
         <v>20000</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -2139,8 +2402,15 @@
       <c r="E39">
         <v>20400</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -2150,8 +2420,15 @@
       <c r="E40">
         <v>20800</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -2161,8 +2438,15 @@
       <c r="E41">
         <v>21200</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -2172,8 +2456,15 @@
       <c r="E42">
         <v>21600</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -2183,8 +2474,15 @@
       <c r="E43">
         <v>22000</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -2194,8 +2492,15 @@
       <c r="E44">
         <v>22400</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -2205,8 +2510,15 @@
       <c r="E45">
         <v>22800</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -2216,8 +2528,15 @@
       <c r="E46">
         <v>23200</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -2227,8 +2546,15 @@
       <c r="E47">
         <v>23600</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>45</v>
       </c>
@@ -2238,8 +2564,15 @@
       <c r="E48">
         <v>24000</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>45</v>
       </c>
@@ -2249,8 +2582,15 @@
       <c r="E49">
         <v>24800</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>45</v>
       </c>
@@ -2260,8 +2600,15 @@
       <c r="E50">
         <v>25600</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>45</v>
       </c>
@@ -2271,8 +2618,15 @@
       <c r="E51">
         <v>26400</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>45</v>
       </c>
@@ -2281,6 +2635,10 @@
       </c>
       <c r="E52">
         <v>26800</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-16</v>
       </c>
     </row>
   </sheetData>
